--- a/user_input_files/planillas-web/Mantenimientos.xlsx
+++ b/user_input_files/planillas-web/Mantenimientos.xlsx
@@ -1,37 +1,294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+  <si>
+    <t>ID Mantenimiento</t>
+  </si>
+  <si>
+    <t>Fecha Programada</t>
+  </si>
+  <si>
+    <t>Fecha de Realización</t>
+  </si>
+  <si>
+    <t>Tipo de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Equipo/Gabinete</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Descripción del Trabajo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Técnico Responsable</t>
+  </si>
+  <si>
+    <t>Materiales Utilizados</t>
+  </si>
+  <si>
+    <t>Costo Aproximado</t>
+  </si>
+  <si>
+    <t>Equipos/Cámaras Afectadas</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Componente Tipo</t>
+  </si>
+  <si>
+    <t>Componente ID</t>
+  </si>
+  <si>
+    <t>Descripción Trabajo</t>
+  </si>
+  <si>
+    <t>Duración (horas)</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Próximo Mantenimiento</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>MNT-001</t>
+  </si>
+  <si>
+    <t>MANT-002</t>
+  </si>
+  <si>
+    <t>MANT-003</t>
+  </si>
+  <si>
+    <t>MANT-004</t>
+  </si>
+  <si>
+    <t>MANT-005</t>
+  </si>
+  <si>
+    <t>MANT-006</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>Correctivo</t>
+  </si>
+  <si>
+    <t>Cambio de batería</t>
+  </si>
+  <si>
+    <t>UPS-001 / GAB-001</t>
+  </si>
+  <si>
+    <t>Edificio O - 3er Piso</t>
+  </si>
+  <si>
+    <t>Cambio de 1 batería de UPS</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Técnico Propio</t>
+  </si>
+  <si>
+    <t>Personal interno</t>
+  </si>
+  <si>
+    <t>Técnico externo</t>
+  </si>
+  <si>
+    <t>Técnico especializado UPS</t>
+  </si>
+  <si>
+    <t>1 Batería 12V 9Ah</t>
+  </si>
+  <si>
+    <t>Paño microfibra, alcohol isopropílico</t>
+  </si>
+  <si>
+    <t>Ventilador 40mm 12V</t>
+  </si>
+  <si>
+    <t>Aire comprimido, software diagnóstico</t>
+  </si>
+  <si>
+    <t>Fuente 12V 5A nueva</t>
+  </si>
+  <si>
+    <t>2x Batería RBC7 - 12V 17Ah</t>
+  </si>
+  <si>
+    <t>10 cámaras domo + 1 PTZ temporalmente sin respaldo</t>
+  </si>
+  <si>
+    <t>30 minutos</t>
+  </si>
+  <si>
+    <t>Mantenimiento exitoso, sistema operando normalmente</t>
+  </si>
+  <si>
+    <t>Mantenimiento trimestral programado</t>
+  </si>
+  <si>
+    <t>Switch presentaba sobrecalentamiento</t>
+  </si>
+  <si>
+    <t>RAID 1 operando correctamente</t>
+  </si>
+  <si>
+    <t>Fuente presentó falla total - reemplazada</t>
+  </si>
+  <si>
+    <t>Baterías con 1 año de uso - cambio preventivo</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>Preventivo</t>
+  </si>
+  <si>
+    <t>Cámara</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>NVR</t>
+  </si>
+  <si>
+    <t>Fuente Poder</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Edificio-L-Pasillo-Dome-01</t>
+  </si>
+  <si>
+    <t>SW-005</t>
+  </si>
+  <si>
+    <t>NVR-005</t>
+  </si>
+  <si>
+    <t>FP-003</t>
+  </si>
+  <si>
+    <t>UPS-003</t>
+  </si>
+  <si>
+    <t>Limpieza preventiva de cámaras domo - remoción de polvo y verificación mecánica</t>
+  </si>
+  <si>
+    <t>Reemplazo de ventilador defectuoso en switch principal CFT Prat</t>
+  </si>
+  <si>
+    <t>Verificación de discos RAID y limpieza de sistema de almacenamiento</t>
+  </si>
+  <si>
+    <t>Reemplazo de fuente de poder defectuosa</t>
+  </si>
+  <si>
+    <t>Cambio preventivo de baterías UPS CFT Prat</t>
+  </si>
+  <si>
+    <t>Exitoso</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2026-05-15</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +303,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,170 +619,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID Mantenimiento</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha Programada</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de Realización</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Mantenimiento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Categoría</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Equipo/Gabinete</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ubicación</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Descripción del Trabajo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Técnico Responsable</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Materiales Utilizados</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Costo Aproximado</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Equipos/Cámaras Afectadas</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de Ejecución</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MNT-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13/10/2025</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Correctivo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cambio de batería</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>UPS-001 / GAB-001</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Edificio O - 3er Piso</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Cambio de 1 batería de UPS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Técnico Propio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1 Batería 12V 9Ah</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>10 cámaras domo + 1 PTZ temporalmente sin respaldo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>30 minutos</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Mantenimiento exitoso, sistema operando normalmente</t>
-        </is>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4">
+        <v>1.5</v>
+      </c>
+      <c r="V4">
+        <v>15000</v>
+      </c>
+      <c r="W4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>12000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>85000</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>